--- a/Oil price information/2559.xlsx
+++ b/Oil price information/2559.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\OVERFLOW-PSIT\Oil price information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4E0F56-090A-46C1-A7F1-AA034B7F8EA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E065C57C-A482-4D94-816E-6BC9D112F94E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="19452" activeTab="1" xr2:uid="{AE01BACC-D742-6B4E-AA39-DC40F97CACB1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>วว/ดด/ปป</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Ultra Force Diesel</t>
   </si>
 </sst>
 </file>
@@ -564,42 +567,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -637,6 +604,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1020,14 +1023,14 @@
         <v>20.59</v>
       </c>
       <c r="G2" s="22"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="2">
@@ -1049,12 +1052,12 @@
         <v>20.59</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="18" thickBot="1">
       <c r="A4" s="2">
@@ -1098,14 +1101,14 @@
         <v>20.59</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" ht="18.899999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="2">
@@ -1127,12 +1130,12 @@
         <v>20.59</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="18" thickBot="1">
       <c r="A7" s="2">
@@ -1219,23 +1222,23 @@
       <c r="H9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="34">
         <f>AVERAGE(B2:B32)</f>
         <v>22.989677419354823</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="35">
         <f t="shared" ref="J9:M9" si="0">AVERAGE(C2:C32)</f>
         <v>23.409677419354846</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="35">
         <f t="shared" si="0"/>
         <v>21.049677419354836</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="35">
         <f t="shared" si="0"/>
         <v>18.006129032258059</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="36">
         <f t="shared" si="0"/>
         <v>19.844838709677425</v>
       </c>
@@ -1263,7 +1266,7 @@
       <c r="H10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="37">
         <f>AVERAGE(B33:B62)</f>
         <v>21.963333333333324</v>
       </c>
@@ -1279,7 +1282,7 @@
         <f t="shared" si="1"/>
         <v>17.20666666666666</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="38">
         <f t="shared" si="1"/>
         <v>20.323333333333341</v>
       </c>
@@ -1307,7 +1310,7 @@
       <c r="H11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="37">
         <f>AVERAGE(B63:B93)</f>
         <v>23.076774193548385</v>
       </c>
@@ -1323,7 +1326,7 @@
         <f t="shared" si="2"/>
         <v>17.783548387096783</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="38">
         <f t="shared" si="2"/>
         <v>21.912580645161288</v>
       </c>
@@ -1351,7 +1354,7 @@
       <c r="H12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="37">
         <f>AVERAGE(B94:B123)</f>
         <v>23.560000000000002</v>
       </c>
@@ -1367,7 +1370,7 @@
         <f t="shared" si="3"/>
         <v>18.040000000000006</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="38">
         <f t="shared" si="3"/>
         <v>22.39</v>
       </c>
@@ -1395,7 +1398,7 @@
       <c r="H13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="37">
         <f>AVERAGE(B124:B154)</f>
         <v>24.767096774193529</v>
       </c>
@@ -1411,7 +1414,7 @@
         <f t="shared" si="4"/>
         <v>18.644838709677412</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="38">
         <f t="shared" si="4"/>
         <v>24.193225806451625</v>
       </c>
@@ -1439,7 +1442,7 @@
       <c r="H14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="37">
         <f>AVERAGE(B155:B184)</f>
         <v>24.600000000000009</v>
       </c>
@@ -1455,7 +1458,7 @@
         <f t="shared" si="5"/>
         <v>18.523333333333326</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="38">
         <f t="shared" si="5"/>
         <v>25.040000000000006</v>
       </c>
@@ -1483,7 +1486,7 @@
       <c r="H15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="37">
         <f>AVERAGE(B185:B215)</f>
         <v>23.570322580645151</v>
       </c>
@@ -1499,7 +1502,7 @@
         <f t="shared" si="6"/>
         <v>17.312580645161297</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="38">
         <f t="shared" si="6"/>
         <v>24.499677419354846</v>
       </c>
@@ -1527,7 +1530,7 @@
       <c r="H16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="37">
         <f>AVERAGE(B216:B246)</f>
         <v>23.53806451612903</v>
       </c>
@@ -1543,7 +1546,7 @@
         <f t="shared" si="7"/>
         <v>17.344838709677422</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="38">
         <f t="shared" si="7"/>
         <v>23.390000000000015</v>
       </c>
@@ -1571,7 +1574,7 @@
       <c r="H17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="37">
         <f>AVERAGE(B247:B276)</f>
         <v>24.58666666666668</v>
       </c>
@@ -1587,7 +1590,7 @@
         <f t="shared" si="8"/>
         <v>18.056666666666672</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="38">
         <f t="shared" si="8"/>
         <v>23.336666666666662</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="H18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="37">
         <f>AVERAGE(B277:B307)</f>
         <v>25.463870967741943</v>
       </c>
@@ -1631,7 +1634,7 @@
         <f t="shared" si="9"/>
         <v>18.512580645161282</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="38">
         <f t="shared" si="9"/>
         <v>24.409354838709689</v>
       </c>
@@ -1659,7 +1662,7 @@
       <c r="H19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="37">
         <f>AVERAGE(B308:B337)</f>
         <v>25.186666666666678</v>
       </c>
@@ -1675,7 +1678,7 @@
         <f t="shared" si="10"/>
         <v>18.483333333333331</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="38">
         <f t="shared" si="10"/>
         <v>24.196666666666673</v>
       </c>
@@ -1703,7 +1706,7 @@
       <c r="H20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="39">
         <f>AVERAGE(B338:B368)</f>
         <v>26.633333333333344</v>
       </c>
@@ -1719,7 +1722,7 @@
         <f t="shared" si="11"/>
         <v>19.576666666666661</v>
       </c>
-      <c r="M20" s="52">
+      <c r="M20" s="40">
         <f t="shared" si="11"/>
         <v>25.643333333333334</v>
       </c>
@@ -1767,14 +1770,14 @@
         <v>19.29</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="55"/>
     </row>
     <row r="23" spans="1:14" ht="18" thickBot="1">
       <c r="A23" s="2">
@@ -1796,12 +1799,12 @@
         <v>19.29</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
     </row>
     <row r="24" spans="1:14" ht="18" thickBot="1">
       <c r="A24" s="2">
@@ -8940,7 +8943,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8951,46 +8954,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>5</v>
+      <c r="F1" s="46" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="35">
         <f>AVERAGE('2559'!B2:B32)</f>
         <v>22.989677419354823</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="35">
         <f>AVERAGE('2559'!C2:C32)</f>
         <v>23.409677419354846</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="35">
         <f>AVERAGE('2559'!D2:D32)</f>
         <v>21.049677419354836</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="35">
         <f>AVERAGE('2559'!E2:E32)</f>
         <v>18.006129032258059</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="36">
         <f>AVERAGE('2559'!F2:F32)</f>
         <v>19.844838709677425</v>
       </c>
@@ -9015,7 +9018,7 @@
         <f>AVERAGE('2559'!E33:E61)</f>
         <v>17.207241379310336</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="38">
         <f>AVERAGE('2559'!F33:F61)</f>
         <v>20.310689655172421</v>
       </c>
@@ -9040,7 +9043,7 @@
         <f>AVERAGE('2559'!E62:E92)</f>
         <v>17.751290322580655</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="38">
         <f>AVERAGE('2559'!F62:F92)</f>
         <v>21.873870967741933</v>
       </c>
@@ -9065,7 +9068,7 @@
         <f>AVERAGE('2559'!E93:E122)</f>
         <v>18.030000000000005</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="38">
         <f>AVERAGE('2559'!F93:F122)</f>
         <v>22.323333333333334</v>
       </c>
@@ -9090,7 +9093,7 @@
         <f>AVERAGE('2559'!E123:E153)</f>
         <v>18.631935483870961</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="38">
         <f>AVERAGE('2559'!F123:F153)</f>
         <v>24.15451612903227</v>
       </c>
@@ -9115,7 +9118,7 @@
         <f>AVERAGE('2559'!E154:E183)</f>
         <v>18.553333333333327</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="38">
         <f>AVERAGE('2559'!F154:F183)</f>
         <v>25.040000000000006</v>
       </c>
@@ -9140,7 +9143,7 @@
         <f>AVERAGE('2559'!E184:E214)</f>
         <v>17.354516129032266</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="38">
         <f>AVERAGE('2559'!F184:F214)</f>
         <v>24.551290322580652</v>
       </c>
@@ -9165,7 +9168,7 @@
         <f>AVERAGE('2559'!E215:E245)</f>
         <v>17.296451612903226</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="38">
         <f>AVERAGE('2559'!F215:F245)</f>
         <v>23.383548387096791</v>
       </c>
@@ -9190,7 +9193,7 @@
         <f>AVERAGE('2559'!E246:E275)</f>
         <v>18.056666666666668</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="38">
         <f>AVERAGE('2559'!F246:F275)</f>
         <v>23.336666666666659</v>
       </c>
@@ -9215,7 +9218,7 @@
         <f>AVERAGE('2559'!E276:E306)</f>
         <v>18.499677419354832</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="38">
         <f>AVERAGE('2559'!F276:F306)</f>
         <v>24.380322580645178</v>
       </c>
@@ -9240,7 +9243,7 @@
         <f>AVERAGE('2559'!E307:E336)</f>
         <v>18.479999999999997</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="38">
         <f>AVERAGE('2559'!F307:F336)</f>
         <v>24.200000000000003</v>
       </c>
@@ -9265,7 +9268,7 @@
         <f>AVERAGE('2559'!E337:E367)</f>
         <v>19.548064516129024</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="40">
         <f>AVERAGE('2559'!F337:F367)</f>
         <v>25.606129032258071</v>
       </c>
